--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miltontulli/Documents/proyectos/tincho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F644277-7C6A-B341-9A9A-0602955A7E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF572E-5C3F-1E44-A823-8C6317F96DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load" sheetId="1" r:id="rId1"/>
     <sheet name="status" sheetId="2" r:id="rId2"/>
+    <sheet name="create" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">load!$A$1:$C$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>NO SE</t>
   </si>
@@ -108,6 +109,36 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>attr2</t>
+  </si>
+  <si>
+    <t>attr3</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>HOLA</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>Esto es la descripcion</t>
+  </si>
+  <si>
+    <t>el vendor</t>
   </si>
 </sst>
 </file>
@@ -990,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1077,4 +1108,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A621B3F-6A71-B44F-8CA3-8B7525B3A95B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miltontulli/Documents/proyectos/tincho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tincho\Documents\tincho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF572E-5C3F-1E44-A823-8C6317F96DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7624E-3156-4985-9762-9953177C3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>NO SE</t>
   </si>
@@ -126,19 +126,13 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>HOLA</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>como</t>
-  </si>
-  <si>
     <t>Esto es la descripcion</t>
   </si>
   <si>
     <t>el vendor</t>
+  </si>
+  <si>
+    <t>BKWH</t>
   </si>
 </sst>
 </file>
@@ -555,17 +549,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -584,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>10096</v>
       </c>
@@ -601,7 +595,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>10126</v>
       </c>
@@ -618,7 +612,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10126</v>
       </c>
@@ -635,7 +629,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>14036</v>
       </c>
@@ -652,7 +646,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16296</v>
       </c>
@@ -669,7 +663,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>16966</v>
       </c>
@@ -686,7 +680,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>16966</v>
       </c>
@@ -703,7 +697,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>13706</v>
       </c>
@@ -720,7 +714,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>13706</v>
       </c>
@@ -737,7 +731,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>13706</v>
       </c>
@@ -754,7 +748,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>16996</v>
       </c>
@@ -771,7 +765,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>16996</v>
       </c>
@@ -788,7 +782,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>16996</v>
       </c>
@@ -805,7 +799,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>16996</v>
       </c>
@@ -822,7 +816,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>16996</v>
       </c>
@@ -839,7 +833,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16996</v>
       </c>
@@ -856,7 +850,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -873,7 +867,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -890,7 +884,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15196</v>
       </c>
@@ -907,7 +901,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15196</v>
       </c>
@@ -924,7 +918,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>15196</v>
       </c>
@@ -941,7 +935,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>15196</v>
       </c>
@@ -958,7 +952,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>16946</v>
       </c>
@@ -975,7 +969,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>17386</v>
       </c>
@@ -992,7 +986,7 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>10126</v>
       </c>
@@ -1025,12 +1019,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1112,15 +1106,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A621B3F-6A71-B44F-8CA3-8B7525B3A95B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1137,21 +1131,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32236</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
